--- a/kd/test_with_predictions.xlsx
+++ b/kd/test_with_predictions.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Horse</t>
+  </si>
+  <si>
+    <t>Morning Line</t>
   </si>
   <si>
     <t>KD Place Predicted</t>
@@ -440,185 +443,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
+      <c r="C22">
         <v>-1</v>
       </c>
     </row>
